--- a/biology/Médecine/Vaporisateur/Vaporisateur.xlsx
+++ b/biology/Médecine/Vaporisateur/Vaporisateur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un vaporisateur est un appareil utilisé pour libérer sous forme de vapeur les principes actifs contenus dans certaines plantes.
 C'est un appareil généralement électrique utilisé en phytothérapie et en aromathérapie. Il est aussi parfois utilisé pour la consommation de cannabis et d'autres psychotropes, car il permet de les consommer de façon moins nocive[réf. nécessaire].
@@ -514,11 +526,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fumigation, ou vaporisation était bien connue des Scythes, si l'on en croit l'historien grec Hérodote[1] (450 av. J.-C.), qui décrit une séance de fumigation collective entraînant l'hilarité des participants. Le professeur Sergueï Ivanovitch Roudenko, archéologue soviétique, a confirmé l'utilisation courante du cannabis par les Scythes avec la découverte en 1929 sur le site de Pazyryk d'un chaudron de bronze rempli de graines de chanvre carbonisées, ainsi que des vêtements de chanvre et des encensoirs métalliques[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fumigation, ou vaporisation était bien connue des Scythes, si l'on en croit l'historien grec Hérodote (450 av. J.-C.), qui décrit une séance de fumigation collective entraînant l'hilarité des participants. Le professeur Sergueï Ivanovitch Roudenko, archéologue soviétique, a confirmé l'utilisation courante du cannabis par les Scythes avec la découverte en 1929 sur le site de Pazyryk d'un chaudron de bronze rempli de graines de chanvre carbonisées, ainsi que des vêtements de chanvre et des encensoirs métalliques.
 Les principales évolution des vaporisateurs « modernes » :
-1981 : création de "TILT", le premier vaporisateur électrique. Il ne sera pas commercialisé[3].
+1981 : création de "TILT", le premier vaporisateur électrique. Il ne sera pas commercialisé.
 1994 : création du vaporisateur BC (photo illustrant l'article), premier vaporisateur vendu en grand nombre.
 2010 : démocratisation des vaporisateurs (due à la phytothérapie, cigarette électronique, libéralisation du cannabis)
 </t>
@@ -549,7 +563,9 @@
           <t>Types de vaporisateurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Chauffage par conduction thermique : Les vaporisateurs les moins onéreux utilisent ce procédé. Les extraits de plantes sont directement au contact de la source de chaleur, ce qui a tendance à altérer plus ou moins le goût. Les températures ne sont pas stables ce qui peut avoir comme conséquence de bruler les végétaux. Le plus simples d'entre eux utilisent un simple briquet comme source de chaleur. Ceux-ci peuvent aisément être fabriqués à la maison, pour moins de 5 €.
 Chauffage par rayonnement : Une ampoule halogène est utilisée pour le chauffage. La température augmente car les extraits de plante absorbent l'énergie lumineuse.
@@ -586,7 +602,9 @@
           <t>Utilisation des vaporisateurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les avantages :
 dosage précis des principes actifs délivrés (possibilité d'augmenter progressivement jusqu'à obtention du niveau désiré)
@@ -626,12 +644,14 @@
           <t>Les températures de vaporisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Lorsque l'on chauffe les extraits de plantes à une température proche de la température de combustion, des produits de dégradation pyrolytiques irritants apparaissent. Ceux-ci peuvent être nocifs. Il est donc conseillé de chauffer les extraits en dessous de cette température.
 La vaporisation n'est pas censé brûler les végétaux (car la cellulose qu'ils contiennent ne brûle qu'au-dessus de 230 °C (230 °C)), ce qui permet de répéter plusieurs fois l'inhalation avec les mêmes extraits de plante.
 Aucune étude sur l'abus de vaporisation n'a été menée à ce jour. Aucun effet secondaire notable n'a été décrit par les hôpitaux qui utilisent ces appareils (Suisse, Autriche...) 
-Les plantes les plus utilisées en vaporisation sont le tabac et le cannabis car la vaporisation est une alternative à la cigarette, au cannabis ingéré ou fumé[4].
+Les plantes les plus utilisées en vaporisation sont le tabac et le cannabis car la vaporisation est une alternative à la cigarette, au cannabis ingéré ou fumé.
 La quantité de principes actifs contenue dans la vapeur dépend des facteurs suivants :
 Qualité : La concentration en principes actifs dans les extraits de plantes utilisés.
 Quantité : La quantité de matériel pouvant être chauffé (entre 0,05  et   2 grammes par remplissage en fonction de l'effet désiré).
@@ -664,10 +684,12 @@
           <t>Vaporisateur et cannabis</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une étude médicale a montré que la vapeur du cannabis produite par le vaporisateur Volcano est composée de 95 % de ses principes actifs, comme le THC[5] par exemple.
-D'autres études médicales sont disponibles[6],[7],[8] par exemple l'étude d'Arno Hazekamp[9].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une étude médicale a montré que la vapeur du cannabis produite par le vaporisateur Volcano est composée de 95 % de ses principes actifs, comme le THC par exemple.
+D'autres études médicales sont disponibles par exemple l'étude d'Arno Hazekamp.
 Les effets néfastes de la fumée de cannabis représentent l'obstacle majeur à la possibilité d'utiliser le cannabis dans un cadre médical. Les conclusions de ces études sont que la vaporisation est un procédé fiable pour délivrer du cannabis au patient sans les effets néfastes de la fumée et de ses nombreux sous-produits de combustion. 
 On entend souvent dire que la vaporisation du cannabis produit un effet moins "lourd", moins "cassant" physiquement que lorsqu'on fume. Cela est peut-être dû au fait que, lorsqu'on vaporise, on n'inhale pas de gaz carbonique et autres substances susceptibles de diminuer l'afflux sanguin arrivant au cœur et au cerveau. Du coup, ces derniers ne voient pas leur apport en oxygène réduit, ce qui pourrait expliquer l'absence d'une certaine "lourdeur" causée par l'inhalation de fumée.
 </t>
